--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed2/result_data_KNN.xlsx
@@ -465,13 +465,13 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92</v>
+        <v>5.636999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.952</v>
+        <v>-7.33</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-20.882</v>
+        <v>-21.535</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.356</v>
+        <v>-12.505</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.336000000000001</v>
+        <v>-7.958</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.108</v>
+        <v>-11.536</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.63</v>
+        <v>-21.682</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.17</v>
+        <v>-21.373</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.45</v>
+        <v>5.414</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.354000000000001</v>
+        <v>-8.078999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.15</v>
+        <v>-20.524</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.14</v>
+        <v>-20.703</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,13 +839,13 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.474000000000001</v>
+        <v>6.915000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.944</v>
+        <v>-13.492</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.034000000000001</v>
+        <v>-7.509</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-20.424</v>
+        <v>-20.386</v>
       </c>
       <c r="B25" t="n">
-        <v>7.174000000000001</v>
+        <v>6.748</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.232</v>
+        <v>-12.701</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.62</v>
+        <v>-21.458</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.964</v>
+        <v>6.443000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.614000000000001</v>
+        <v>-8.327000000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.888</v>
+        <v>-21.15</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,13 +941,13 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.056</v>
+        <v>5.852</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.648000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.524</v>
+        <v>6.306</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.056000000000001</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.172000000000001</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.622</v>
+        <v>7.811000000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.174</v>
+        <v>-20.294</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1131,7 +1131,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.546</v>
+        <v>-12.61</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1145,13 +1145,13 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.042</v>
+        <v>8.395</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.915999999999999</v>
+        <v>-8.472000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.254</v>
+        <v>5.156</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.738</v>
+        <v>-13.087</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.922</v>
+        <v>5.216</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.936</v>
+        <v>4.933</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.632</v>
+        <v>-21.793</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.432</v>
+        <v>-11.857</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.756</v>
+        <v>4.581999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.086000000000002</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,10 +1383,10 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.892</v>
+        <v>6.069000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.612</v>
+        <v>-12.88</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.02</v>
+        <v>-21.322</v>
       </c>
       <c r="B57" t="n">
-        <v>6.946</v>
+        <v>6.104999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.51</v>
+        <v>-12.872</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1420,10 +1420,10 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.378</v>
+        <v>-12.826</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.094999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.834</v>
+        <v>-21.852</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>4.926</v>
+        <v>5.005000000000001</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.13</v>
+        <v>-13.181</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.124</v>
+        <v>-11.757</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1522,7 +1522,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.742</v>
+        <v>-11.805</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.848</v>
+        <v>-21.521</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.190000000000001</v>
+        <v>-7.885</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.43</v>
+        <v>-21.543</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.194</v>
+        <v>-11.621</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.715999999999999</v>
+        <v>-7.571</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.492</v>
+        <v>-11.799</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.566</v>
+        <v>6.186999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,13 +1689,13 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.156000000000001</v>
+        <v>8.825999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.312000000000001</v>
+        <v>-8.049000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.908000000000001</v>
+        <v>-7.711</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.034</v>
+        <v>-21.18</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.59</v>
+        <v>-21.372</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.860000000000001</v>
+        <v>-8.526</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.672000000000001</v>
+        <v>-7.934</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1896,10 +1896,10 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.5</v>
+        <v>-12.495</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.038</v>
+        <v>-7.705</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,10 +1944,10 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.612</v>
+        <v>5.938</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.306</v>
+        <v>-11.222</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.612000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.422</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.622</v>
+        <v>6.027</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.668</v>
+        <v>-21.324</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.402000000000001</v>
+        <v>-7.418000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.709999999999999</v>
+        <v>-8.122000000000002</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.198</v>
+        <v>-12.712</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.058</v>
+        <v>-21.61</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.074</v>
+        <v>-12.887</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.126</v>
+        <v>-12.801</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
